--- a/travel/travel.xlsx
+++ b/travel/travel.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -58,13 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重庆</t>
-    <rPh sb="0" eb="1">
-      <t>tgyd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州</t>
     <rPh sb="0" eb="1">
       <t>yyyt</t>
@@ -353,47 +345,6 @@
   </si>
   <si>
     <t>呼和浩特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <rPh sb="0" eb="1">
-      <t>tj</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批复里程</t>
-    <rPh sb="0" eb="1">
-      <t>rxtj</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jftk</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营里程
-(2018.5)</t>
-    <rPh sb="0" eb="1">
-      <t>fcap</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jftk</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日客流(2018.4)</t>
-    <rPh sb="0" eb="1">
-      <t>jjjj</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ptiy</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,15 +535,21 @@
   </si>
   <si>
     <t>重庆
-(都市区)</t>
+(除涪万黔)</t>
     <rPh sb="0" eb="1">
       <t>tgyd</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>ftym</t>
+      <t>bwt</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'ling</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>aq</t>
+      <t>dnv</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lfia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -992,13 +949,12 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="2" customWidth="1"/>
@@ -1006,18 +962,18 @@
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -1026,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8">
         <v>7</v>
@@ -1056,12 +1012,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -1071,7 +1027,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4">
@@ -1082,7 +1038,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
@@ -1093,7 +1049,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1102,10 +1058,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1115,7 +1071,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="8">
@@ -1126,7 +1082,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
@@ -1137,7 +1093,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4">
@@ -1148,7 +1104,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="8">
@@ -1159,7 +1115,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1168,7 +1124,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
@@ -1179,7 +1135,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4">
@@ -1190,10 +1146,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4">
         <v>6</v>
@@ -1203,7 +1159,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4">
@@ -1214,7 +1170,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -1225,7 +1181,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4">
@@ -1236,7 +1192,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="4">
@@ -1247,7 +1203,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="4">
@@ -1258,7 +1214,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4">
@@ -1269,7 +1225,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4">
@@ -1280,10 +1236,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
@@ -1293,7 +1249,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4">
@@ -1304,7 +1260,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4">
@@ -1315,10 +1271,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1328,7 +1284,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4">
@@ -1339,7 +1295,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="4">
@@ -1350,7 +1306,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="4">
@@ -1361,7 +1317,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="8">
@@ -1372,7 +1328,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4">
@@ -1383,7 +1339,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="4">
@@ -1394,7 +1350,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1403,7 +1359,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4">
@@ -1414,7 +1370,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1423,10 +1379,10 @@
     </row>
     <row r="38" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -1436,7 +1392,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4">
@@ -1447,10 +1403,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
@@ -1460,10 +1416,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
@@ -1473,7 +1429,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1482,10 +1438,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -1495,7 +1451,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -1504,7 +1460,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="4">
@@ -1515,7 +1471,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="4">
@@ -1526,10 +1482,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -1542,794 +1498,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>598</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1327</v>
-      </c>
-      <c r="D2" s="8">
-        <v>990</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:E47" si="0">B2/10+C2/10+D2/20</f>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>637</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1235</v>
-      </c>
-      <c r="D3" s="8">
-        <v>806</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="0"/>
-        <v>227.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>369</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1002</v>
-      </c>
-      <c r="D4" s="8">
-        <v>824</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>178.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>285</v>
-      </c>
-      <c r="C5" s="4">
-        <v>577</v>
-      </c>
-      <c r="D5" s="4">
-        <v>574</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>114.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>346</v>
-      </c>
-      <c r="C6" s="4">
-        <v>374</v>
-      </c>
-      <c r="D6" s="4">
-        <v>570</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>197</v>
-      </c>
-      <c r="C7" s="8">
-        <v>381</v>
-      </c>
-      <c r="D7" s="8">
-        <v>515</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>83.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>237</v>
-      </c>
-      <c r="C8" s="4">
-        <v>351</v>
-      </c>
-      <c r="D8" s="4">
-        <v>401</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>78.849999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>264</v>
-      </c>
-      <c r="C9" s="4">
-        <v>277</v>
-      </c>
-      <c r="D9" s="4">
-        <v>456</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>76.899999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>166</v>
-      </c>
-      <c r="C10" s="4">
-        <v>122</v>
-      </c>
-      <c r="D10" s="4">
-        <v>504</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>117</v>
-      </c>
-      <c r="C11" s="4">
-        <v>168</v>
-      </c>
-      <c r="D11" s="4">
-        <v>477</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>52.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>91</v>
-      </c>
-      <c r="C12" s="4">
-        <v>255</v>
-      </c>
-      <c r="D12" s="4">
-        <v>286</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>48.900000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>157</v>
-      </c>
-      <c r="C13" s="4">
-        <v>68</v>
-      </c>
-      <c r="D13" s="4">
-        <v>296</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3">
-        <v>121</v>
-      </c>
-      <c r="C14" s="4">
-        <v>120</v>
-      </c>
-      <c r="D14" s="4">
-        <v>210</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3">
-        <v>95</v>
-      </c>
-      <c r="C15" s="4">
-        <v>109</v>
-      </c>
-      <c r="D15" s="4">
-        <v>245</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>32.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4">
-        <v>421</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>29.950000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4">
-        <v>96</v>
-      </c>
-      <c r="D17" s="4">
-        <v>263</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>27.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
-        <v>74</v>
-      </c>
-      <c r="C18" s="4">
-        <v>99</v>
-      </c>
-      <c r="D18" s="4">
-        <v>194</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8">
-        <v>109</v>
-      </c>
-      <c r="D19" s="8">
-        <v>181</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>25.85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3">
-        <v>89</v>
-      </c>
-      <c r="C20" s="4">
-        <v>63</v>
-      </c>
-      <c r="D20" s="4">
-        <v>186</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4">
-        <v>176</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>19.700000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3">
-        <v>53</v>
-      </c>
-      <c r="C22" s="4">
-        <v>77</v>
-      </c>
-      <c r="D22" s="4">
-        <v>132</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="0"/>
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3">
-        <v>48</v>
-      </c>
-      <c r="C23" s="4">
-        <v>66</v>
-      </c>
-      <c r="D23" s="4">
-        <v>133</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="0"/>
-        <v>18.049999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4">
-        <v>224</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4">
-        <v>28</v>
-      </c>
-      <c r="D25" s="4">
-        <v>215</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="0"/>
-        <v>16.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>66</v>
-      </c>
-      <c r="C26" s="4">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4">
-        <v>120</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="0"/>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="3">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4">
-        <v>114</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="0"/>
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4">
-        <v>165</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="0"/>
-        <v>14.55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3">
-        <v>21</v>
-      </c>
-      <c r="C29" s="4">
-        <v>60</v>
-      </c>
-      <c r="D29" s="4">
-        <v>120</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="0"/>
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4">
-        <v>179</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="0"/>
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="3">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4">
-        <v>31</v>
-      </c>
-      <c r="D31" s="4">
-        <v>81</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="0"/>
-        <v>10.149999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>23</v>
-      </c>
-      <c r="C32" s="8">
-        <v>31</v>
-      </c>
-      <c r="D32" s="8">
-        <v>92</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4">
-        <v>89</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="0"/>
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4">
-        <v>84</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4">
-        <v>64</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4">
-        <v>59</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="0"/>
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4">
-        <v>54</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4">
-        <v>52</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4">
-        <v>51</v>
-      </c>
-      <c r="E39" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4">
-        <v>36</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E47">
-    <sortCondition descending="1" ref="E1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>